--- a/data/bd_fcv.xlsx
+++ b/data/bd_fcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8236582475706946</v>
+        <v>0.8227043832088959</v>
       </c>
       <c r="D2">
-        <v>0.816004756499513</v>
+        <v>0.01862514451755787</v>
       </c>
       <c r="E2">
-        <v>0.8095984459436434</v>
+        <v>0.81680997916091</v>
       </c>
       <c r="F2">
-        <v>0.8079249489364347</v>
+        <v>0.02016003136401769</v>
       </c>
       <c r="G2">
-        <v>0.7861158064076695</v>
+        <v>0.8141002689724395</v>
+      </c>
+      <c r="H2">
+        <v>0.02698399373550396</v>
+      </c>
+      <c r="I2">
+        <v>0.8087085764982754</v>
+      </c>
+      <c r="J2">
+        <v>0.02330693759478715</v>
+      </c>
+      <c r="K2">
+        <v>0.791492623450966</v>
+      </c>
+      <c r="L2">
+        <v>0.01627445701162525</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8222179768578615</v>
+        <v>0.8278176516051394</v>
       </c>
       <c r="D3">
-        <v>0.8126087861437924</v>
+        <v>0.01716060341196075</v>
       </c>
       <c r="E3">
-        <v>0.8006758015132173</v>
+        <v>0.8145849899016977</v>
       </c>
       <c r="F3">
-        <v>0.7908175096745171</v>
+        <v>0.02228374804388591</v>
       </c>
       <c r="G3">
-        <v>0.791854918197224</v>
+        <v>0.8071371820652065</v>
+      </c>
+      <c r="H3">
+        <v>0.01873490343086296</v>
+      </c>
+      <c r="I3">
+        <v>0.7971884962727798</v>
+      </c>
+      <c r="J3">
+        <v>0.02979905705404396</v>
+      </c>
+      <c r="K3">
+        <v>0.7908893920597986</v>
+      </c>
+      <c r="L3">
+        <v>0.01946116434771431</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7822142156912812</v>
+        <v>0.7797237575740318</v>
       </c>
       <c r="D4">
-        <v>0.7913595013593919</v>
+        <v>0.01034381290272372</v>
       </c>
       <c r="E4">
-        <v>0.7754230334780451</v>
+        <v>0.7838810119296056</v>
       </c>
       <c r="F4">
-        <v>0.7899923447818105</v>
+        <v>0.01924338605229094</v>
       </c>
       <c r="G4">
-        <v>0.7799281675577164</v>
+        <v>0.7849327771403607</v>
+      </c>
+      <c r="H4">
+        <v>0.0216377810033402</v>
+      </c>
+      <c r="I4">
+        <v>0.7902076932162205</v>
+      </c>
+      <c r="J4">
+        <v>0.02194352585381001</v>
+      </c>
+      <c r="K4">
+        <v>0.780342299770113</v>
+      </c>
+      <c r="L4">
+        <v>0.01546790320066242</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7761967239416514</v>
+        <v>0.789744216493433</v>
       </c>
       <c r="D5">
-        <v>0.7674297958332301</v>
+        <v>0.02177300219927225</v>
       </c>
       <c r="E5">
-        <v>0.7612261001107455</v>
+        <v>0.7656482131248989</v>
       </c>
       <c r="F5">
-        <v>0.7366190077940395</v>
+        <v>0.02152487416445197</v>
       </c>
       <c r="G5">
-        <v>0.7557480229568472</v>
+        <v>0.7601505968872101</v>
+      </c>
+      <c r="H5">
+        <v>0.01628677003725389</v>
+      </c>
+      <c r="I5">
+        <v>0.7621046429825049</v>
+      </c>
+      <c r="J5">
+        <v>0.02809523536527091</v>
+      </c>
+      <c r="K5">
+        <v>0.7671530738391767</v>
+      </c>
+      <c r="L5">
+        <v>0.04684496958647222</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7591210332497978</v>
+        <v>0.8205546666999201</v>
       </c>
       <c r="D6">
-        <v>0.7577178749940296</v>
+        <v>0.01445369909918223</v>
       </c>
       <c r="E6">
-        <v>0.7364547119390533</v>
+        <v>0.8017108233902691</v>
       </c>
       <c r="F6">
-        <v>0.7254575878868575</v>
+        <v>0.01251135254418705</v>
       </c>
       <c r="G6">
-        <v>0.6968788874499949</v>
+        <v>0.7828549989833528</v>
+      </c>
+      <c r="H6">
+        <v>0.01697743647061012</v>
+      </c>
+      <c r="I6">
+        <v>0.7621020619911592</v>
+      </c>
+      <c r="J6">
+        <v>0.02440502254272588</v>
+      </c>
+      <c r="K6">
+        <v>0.7360998808234999</v>
+      </c>
+      <c r="L6">
+        <v>0.02524221614875536</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8326140670343323</v>
+        <v>0.834209447315047</v>
       </c>
       <c r="D7">
-        <v>0.810407150811729</v>
+        <v>0.01417499778868238</v>
       </c>
       <c r="E7">
-        <v>0.7822689329636134</v>
+        <v>0.8103393824228515</v>
       </c>
       <c r="F7">
-        <v>0.7556209900016851</v>
+        <v>0.02240009067659626</v>
       </c>
       <c r="G7">
-        <v>0.7511332617546718</v>
+        <v>0.7947514265648719</v>
+      </c>
+      <c r="H7">
+        <v>0.01743246367610575</v>
+      </c>
+      <c r="I7">
+        <v>0.7835512160843862</v>
+      </c>
+      <c r="J7">
+        <v>0.03809256859415011</v>
+      </c>
+      <c r="K7">
+        <v>0.7781105147823051</v>
+      </c>
+      <c r="L7">
+        <v>0.0298409006013912</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.6813511376161936</v>
+        <v>0.8353244815112054</v>
       </c>
       <c r="D8">
-        <v>0.68271613851595</v>
+        <v>0.01430710421391247</v>
       </c>
       <c r="E8">
-        <v>0.6820067356026266</v>
+        <v>0.8247116312815799</v>
       </c>
       <c r="F8">
-        <v>0.6799141115076262</v>
+        <v>0.01744686961647583</v>
       </c>
       <c r="G8">
-        <v>0.6654584667824082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8237079595467754</v>
-      </c>
-      <c r="D9">
-        <v>0.8185037617983498</v>
-      </c>
-      <c r="E9">
-        <v>0.8103616670380189</v>
-      </c>
-      <c r="F9">
-        <v>0.804898683859917</v>
-      </c>
-      <c r="G9">
-        <v>0.7885909174471105</v>
+        <v>0.8167438931598692</v>
+      </c>
+      <c r="H8">
+        <v>0.02061544725623895</v>
+      </c>
+      <c r="I8">
+        <v>0.8118694813104035</v>
+      </c>
+      <c r="J8">
+        <v>0.0248090676157972</v>
+      </c>
+      <c r="K8">
+        <v>0.7967845988153696</v>
+      </c>
+      <c r="L8">
+        <v>0.01910166225212886</v>
       </c>
     </row>
   </sheetData>
